--- a/md phd.xlsx
+++ b/md phd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10768192\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UVUStudentLoaner\Desktop\pbischoff3.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45149365-0225-435F-A593-D18C7F068C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B257DD02-C9C1-4AF5-80DA-CE49210DD2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -1691,7 +1691,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1752,6 +1752,30 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1765,7 +1789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1782,19 +1806,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2013,39 +2038,39 @@
   <dimension ref="A1:X992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomRight" activeCell="P108" sqref="P108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="63.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="13" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="13" width="18.109375" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" customWidth="1"/>
+    <col min="16" max="16" width="44.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="19" width="8.7109375" customWidth="1"/>
+    <col min="18" max="19" width="8.6640625" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="22" width="8.7109375" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" customWidth="1"/>
-    <col min="24" max="24" width="48.85546875" customWidth="1"/>
-    <col min="25" max="29" width="8.7109375" customWidth="1"/>
+    <col min="21" max="22" width="8.6640625" customWidth="1"/>
+    <col min="23" max="23" width="6.5546875" customWidth="1"/>
+    <col min="24" max="24" width="48.88671875" customWidth="1"/>
+    <col min="25" max="29" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2098,7 +2123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -2149,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -2206,7 +2231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -2269,7 +2294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -2332,7 +2357,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -2395,7 +2420,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -2452,7 +2477,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
@@ -2498,14 +2523,14 @@
       <c r="O8" s="7">
         <v>8</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="25" t="s">
         <v>64</v>
       </c>
       <c r="Q8" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>65</v>
       </c>
@@ -2551,14 +2576,14 @@
       <c r="O9" s="7">
         <v>9</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="25" t="s">
         <v>64</v>
       </c>
       <c r="Q9" s="7">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>68</v>
       </c>
@@ -2609,7 +2634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>73</v>
       </c>
@@ -2655,14 +2680,14 @@
       <c r="O11" s="7">
         <v>19</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="25" t="s">
         <v>64</v>
       </c>
       <c r="Q11" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>77</v>
       </c>
@@ -2713,7 +2738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>81</v>
       </c>
@@ -2764,7 +2789,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>82</v>
       </c>
@@ -2810,14 +2835,14 @@
       <c r="O14" s="7">
         <v>16</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="25" t="s">
         <v>87</v>
       </c>
       <c r="Q14" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>88</v>
       </c>
@@ -2868,7 +2893,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>92</v>
       </c>
@@ -2914,14 +2939,14 @@
       <c r="O16" s="10">
         <v>9</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="P16" s="26" t="s">
         <v>97</v>
       </c>
       <c r="Q16" s="10">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>98</v>
       </c>
@@ -2972,7 +2997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>99</v>
       </c>
@@ -3023,7 +3048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>104</v>
       </c>
@@ -3069,14 +3094,14 @@
       <c r="O19" s="7">
         <v>15</v>
       </c>
-      <c r="P19" s="13" t="s">
+      <c r="P19" s="25" t="s">
         <v>109</v>
       </c>
       <c r="Q19" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>110</v>
       </c>
@@ -3122,14 +3147,14 @@
       <c r="O20" s="5">
         <v>14</v>
       </c>
-      <c r="P20" s="17" t="s">
+      <c r="P20" s="27" t="s">
         <v>114</v>
       </c>
       <c r="Q20" s="5">
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>115</v>
       </c>
@@ -3173,12 +3198,12 @@
         <v>521</v>
       </c>
       <c r="O21" s="11"/>
-      <c r="P21" s="18"/>
+      <c r="P21" s="16"/>
       <c r="Q21" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>117</v>
       </c>
@@ -3200,7 +3225,7 @@
       <c r="G22" s="5">
         <v>60</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="17">
         <v>46781</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -3221,17 +3246,17 @@
       <c r="N22" s="5">
         <v>516</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="18">
         <v>10</v>
       </c>
-      <c r="P22" s="17" t="s">
+      <c r="P22" s="27" t="s">
         <v>120</v>
       </c>
       <c r="Q22" s="5">
         <v>1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>121</v>
       </c>
@@ -3277,14 +3302,14 @@
       <c r="O23" s="7">
         <v>11</v>
       </c>
-      <c r="P23" s="13" t="s">
+      <c r="P23" s="25" t="s">
         <v>126</v>
       </c>
       <c r="Q23" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>127</v>
       </c>
@@ -3330,21 +3355,21 @@
       <c r="O24" s="7">
         <v>12</v>
       </c>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="25" t="s">
         <v>132</v>
       </c>
       <c r="Q24" s="7">
         <v>13.6</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D25" s="12">
@@ -3380,13 +3405,13 @@
       <c r="N25" s="12">
         <v>518</v>
       </c>
-      <c r="O25" s="22"/>
+      <c r="O25" s="20"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>138</v>
       </c>
@@ -3437,7 +3462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>142</v>
       </c>
@@ -3480,13 +3505,13 @@
       <c r="N27" s="5">
         <v>517</v>
       </c>
-      <c r="O27" s="22"/>
+      <c r="O27" s="20"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5">
         <v>8.5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>147</v>
       </c>
@@ -3537,7 +3562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>152</v>
       </c>
@@ -3588,7 +3613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>153</v>
       </c>
@@ -3639,7 +3664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>154</v>
       </c>
@@ -3685,14 +3710,14 @@
       <c r="O31" s="5">
         <v>10</v>
       </c>
-      <c r="P31" s="17" t="s">
+      <c r="P31" s="27" t="s">
         <v>157</v>
       </c>
       <c r="Q31" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>158</v>
       </c>
@@ -3743,7 +3768,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>163</v>
       </c>
@@ -3794,7 +3819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>168</v>
       </c>
@@ -3845,7 +3870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>172</v>
       </c>
@@ -3888,13 +3913,13 @@
       <c r="N35" s="7">
         <v>517</v>
       </c>
-      <c r="O35" s="22"/>
+      <c r="O35" s="20"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>174</v>
       </c>
@@ -3945,7 +3970,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>178</v>
       </c>
@@ -3996,7 +4021,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>183</v>
       </c>
@@ -4039,13 +4064,13 @@
       <c r="N38" s="12">
         <v>511</v>
       </c>
-      <c r="O38" s="22"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>188</v>
       </c>
@@ -4091,21 +4116,21 @@
       <c r="O39" s="7">
         <v>9</v>
       </c>
-      <c r="P39" s="13" t="s">
+      <c r="P39" s="25" t="s">
         <v>191</v>
       </c>
       <c r="Q39" s="7">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="19" t="s">
         <v>194</v>
       </c>
       <c r="D40" s="12">
@@ -4149,7 +4174,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>197</v>
       </c>
@@ -4189,7 +4214,7 @@
       <c r="M41" s="7">
         <v>782</v>
       </c>
-      <c r="N41" s="23">
+      <c r="N41" s="21">
         <v>516</v>
       </c>
       <c r="O41" s="7">
@@ -4200,7 +4225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>199</v>
       </c>
@@ -4246,14 +4271,14 @@
       <c r="O42" s="10">
         <v>9</v>
       </c>
-      <c r="P42" s="16" t="s">
+      <c r="P42" s="26" t="s">
         <v>204</v>
       </c>
       <c r="Q42" s="10">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>205</v>
       </c>
@@ -4299,14 +4324,14 @@
       <c r="O43" s="7">
         <v>7</v>
       </c>
-      <c r="P43" s="24" t="s">
+      <c r="P43" s="28" t="s">
         <v>210</v>
       </c>
       <c r="Q43" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>211</v>
       </c>
@@ -4357,7 +4382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>215</v>
       </c>
@@ -4408,7 +4433,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>219</v>
       </c>
@@ -4459,7 +4484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>224</v>
       </c>
@@ -4502,13 +4527,13 @@
       <c r="N47" s="5">
         <v>518</v>
       </c>
-      <c r="O47" s="22"/>
+      <c r="O47" s="20"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>228</v>
       </c>
@@ -4559,14 +4584,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="19" t="s">
         <v>234</v>
       </c>
       <c r="D49" s="12">
@@ -4610,7 +4635,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>237</v>
       </c>
@@ -4661,14 +4686,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="19" t="s">
         <v>242</v>
       </c>
       <c r="D51" s="12">
@@ -4704,13 +4729,13 @@
       <c r="N51" s="12">
         <v>512</v>
       </c>
-      <c r="O51" s="22"/>
+      <c r="O51" s="20"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="12">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>245</v>
       </c>
@@ -4761,7 +4786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>248</v>
       </c>
@@ -4783,7 +4808,7 @@
       <c r="G53" s="5">
         <v>65</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="17">
         <v>272694</v>
       </c>
       <c r="I53" s="5" t="s">
@@ -4812,7 +4837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>251</v>
       </c>
@@ -4863,7 +4888,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>256</v>
       </c>
@@ -4914,7 +4939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>257</v>
       </c>
@@ -4965,7 +4990,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>259</v>
       </c>
@@ -5016,7 +5041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>261</v>
       </c>
@@ -5067,7 +5092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>262</v>
       </c>
@@ -5118,7 +5143,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>263</v>
       </c>
@@ -5164,14 +5189,14 @@
       <c r="O60" s="12">
         <v>8</v>
       </c>
-      <c r="P60" s="25" t="s">
+      <c r="P60" s="29" t="s">
         <v>268</v>
       </c>
       <c r="Q60" s="12">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>269</v>
       </c>
@@ -5222,7 +5247,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>273</v>
       </c>
@@ -5268,14 +5293,14 @@
       <c r="O62" s="12">
         <v>11</v>
       </c>
-      <c r="P62" s="25" t="s">
+      <c r="P62" s="29" t="s">
         <v>276</v>
       </c>
       <c r="Q62" s="12">
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>277</v>
       </c>
@@ -5297,7 +5322,7 @@
       <c r="G63" s="5">
         <v>36</v>
       </c>
-      <c r="H63" s="19">
+      <c r="H63" s="17">
         <v>26712</v>
       </c>
       <c r="I63" s="5" t="s">
@@ -5321,14 +5346,14 @@
       <c r="O63" s="5">
         <v>8</v>
       </c>
-      <c r="P63" s="17" t="s">
+      <c r="P63" s="27" t="s">
         <v>280</v>
       </c>
       <c r="Q63" s="5">
         <v>3.6</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>281</v>
       </c>
@@ -5374,14 +5399,14 @@
       <c r="O64" s="7">
         <v>6</v>
       </c>
-      <c r="P64" s="13" t="s">
+      <c r="P64" s="25" t="s">
         <v>286</v>
       </c>
       <c r="Q64" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>287</v>
       </c>
@@ -5432,7 +5457,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>292</v>
       </c>
@@ -5475,13 +5500,13 @@
       <c r="N66" s="7">
         <v>517</v>
       </c>
-      <c r="O66" s="22"/>
+      <c r="O66" s="20"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>294</v>
       </c>
@@ -5524,13 +5549,13 @@
       <c r="N67" s="7">
         <v>512</v>
       </c>
-      <c r="O67" s="22"/>
+      <c r="O67" s="20"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>297</v>
       </c>
@@ -5581,7 +5606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>301</v>
       </c>
@@ -5632,7 +5657,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>302</v>
       </c>
@@ -5685,7 +5710,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>307</v>
       </c>
@@ -5736,14 +5761,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+    <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="19" t="s">
         <v>310</v>
       </c>
       <c r="D72" s="12">
@@ -5758,7 +5783,7 @@
       <c r="G72" s="12">
         <v>45</v>
       </c>
-      <c r="H72" s="26">
+      <c r="H72" s="22">
         <v>726000</v>
       </c>
       <c r="I72" s="12" t="s">
@@ -5787,7 +5812,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>312</v>
       </c>
@@ -5838,7 +5863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>317</v>
       </c>
@@ -5860,7 +5885,7 @@
       <c r="G74" s="5">
         <v>60</v>
       </c>
-      <c r="H74" s="19">
+      <c r="H74" s="17">
         <v>1043433</v>
       </c>
       <c r="I74" s="5" t="s">
@@ -5884,14 +5909,14 @@
       <c r="O74" s="5">
         <v>8</v>
       </c>
-      <c r="P74" s="17" t="s">
+      <c r="P74" s="27" t="s">
         <v>321</v>
       </c>
       <c r="Q74" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>322</v>
       </c>
@@ -5942,7 +5967,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>326</v>
       </c>
@@ -5982,23 +6007,23 @@
       <c r="M76" s="7">
         <v>742</v>
       </c>
-      <c r="N76" s="23">
+      <c r="N76" s="21">
         <v>513</v>
       </c>
-      <c r="O76" s="22"/>
+      <c r="O76" s="20"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
+    <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="19" t="s">
         <v>331</v>
       </c>
       <c r="D77" s="12">
@@ -6042,7 +6067,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>334</v>
       </c>
@@ -6085,13 +6110,13 @@
       <c r="N78" s="10">
         <v>512</v>
       </c>
-      <c r="O78" s="22"/>
+      <c r="O78" s="20"/>
       <c r="P78" s="10"/>
       <c r="Q78" s="10">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>337</v>
       </c>
@@ -6134,13 +6159,13 @@
       <c r="N79" s="12">
         <v>510</v>
       </c>
-      <c r="O79" s="22"/>
+      <c r="O79" s="20"/>
       <c r="P79" s="12"/>
       <c r="Q79" s="12">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>342</v>
       </c>
@@ -6191,7 +6216,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>346</v>
       </c>
@@ -6234,13 +6259,13 @@
       <c r="N81" s="7">
         <v>509</v>
       </c>
-      <c r="O81" s="22"/>
+      <c r="O81" s="20"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>348</v>
       </c>
@@ -6291,7 +6316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>349</v>
       </c>
@@ -6342,7 +6367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>354</v>
       </c>
@@ -6385,13 +6410,13 @@
       <c r="N84" s="5">
         <v>509</v>
       </c>
-      <c r="O84" s="22"/>
+      <c r="O84" s="20"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5">
         <v>6.2</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>358</v>
       </c>
@@ -6437,14 +6462,14 @@
       <c r="O85" s="7">
         <v>2</v>
       </c>
-      <c r="P85" s="13" t="s">
+      <c r="P85" s="25" t="s">
         <v>362</v>
       </c>
       <c r="Q85" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>363</v>
       </c>
@@ -6495,7 +6520,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>367</v>
       </c>
@@ -6538,13 +6563,13 @@
       <c r="N87" s="8">
         <v>508</v>
       </c>
-      <c r="O87" s="27"/>
+      <c r="O87" s="23"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="8">
         <v>4.8</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>370</v>
       </c>
@@ -6587,20 +6612,20 @@
       <c r="N88" s="7">
         <v>514</v>
       </c>
-      <c r="O88" s="22"/>
+      <c r="O88" s="20"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7">
         <v>27.3</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
+    <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="23" t="s">
         <v>373</v>
       </c>
       <c r="D89" s="8">
@@ -6636,13 +6661,13 @@
       <c r="N89" s="8">
         <v>506</v>
       </c>
-      <c r="O89" s="27"/>
+      <c r="O89" s="23"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="8">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>376</v>
       </c>
@@ -6685,13 +6710,13 @@
       <c r="N90" s="12">
         <v>506</v>
       </c>
-      <c r="O90" s="22"/>
+      <c r="O90" s="20"/>
       <c r="P90" s="12"/>
       <c r="Q90" s="12">
         <v>251</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>380</v>
       </c>
@@ -6734,13 +6759,13 @@
       <c r="N91" s="5">
         <v>504</v>
       </c>
-      <c r="O91" s="22"/>
+      <c r="O91" s="20"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>381</v>
       </c>
@@ -6783,13 +6808,13 @@
       <c r="N92" s="10">
         <v>506</v>
       </c>
-      <c r="O92" s="22"/>
+      <c r="O92" s="20"/>
       <c r="P92" s="10"/>
       <c r="Q92" s="10">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>385</v>
       </c>
@@ -6840,7 +6865,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>388</v>
       </c>
@@ -6886,14 +6911,14 @@
       <c r="O94" s="10">
         <v>8</v>
       </c>
-      <c r="P94" s="16" t="s">
+      <c r="P94" s="26" t="s">
         <v>392</v>
       </c>
       <c r="Q94" s="10">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>393</v>
       </c>
@@ -6944,7 +6969,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>397</v>
       </c>
@@ -6987,20 +7012,20 @@
       <c r="N96" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="O96" s="22"/>
+      <c r="O96" s="20"/>
       <c r="P96" s="10"/>
       <c r="Q96" s="10">
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="21" t="s">
+    <row r="97" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="19" t="s">
         <v>404</v>
       </c>
       <c r="D97" s="12">
@@ -7044,14 +7069,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="21" t="s">
+    <row r="98" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="19" t="s">
         <v>408</v>
       </c>
       <c r="D98" s="12">
@@ -7095,7 +7120,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>410</v>
       </c>
@@ -7146,7 +7171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>413</v>
       </c>
@@ -7189,20 +7214,20 @@
       <c r="N100" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="O100" s="22"/>
+      <c r="O100" s="20"/>
       <c r="P100" s="10"/>
       <c r="Q100" s="10">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="27" t="s">
+    <row r="101" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="C101" s="27" t="s">
+      <c r="C101" s="23" t="s">
         <v>399</v>
       </c>
       <c r="D101" s="8">
@@ -7238,20 +7263,20 @@
       <c r="N101" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="O101" s="27"/>
+      <c r="O101" s="23"/>
       <c r="P101" s="8"/>
       <c r="Q101" s="8">
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="21" t="s">
+    <row r="102" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="19" t="s">
         <v>419</v>
       </c>
       <c r="D102" s="12">
@@ -7287,13 +7312,13 @@
       <c r="N102" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="O102" s="22"/>
+      <c r="O102" s="20"/>
       <c r="P102" s="12"/>
       <c r="Q102" s="12">
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>422</v>
       </c>
@@ -7315,7 +7340,7 @@
       <c r="G103" s="5">
         <v>62</v>
       </c>
-      <c r="H103" s="19">
+      <c r="H103" s="17">
         <v>24935</v>
       </c>
       <c r="I103" s="5" t="s">
@@ -7336,13 +7361,13 @@
       <c r="N103" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="O103" s="22"/>
+      <c r="O103" s="20"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5">
         <v>9.6</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>425</v>
       </c>
@@ -7385,13 +7410,13 @@
       <c r="N104" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="O104" s="27"/>
+      <c r="O104" s="23"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8">
         <v>22.3</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>426</v>
       </c>
@@ -7431,16 +7456,16 @@
       <c r="M105" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="N105" s="28" t="s">
+      <c r="N105" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="O105" s="22"/>
+      <c r="O105" s="20"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="9">
         <v>12.3</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>428</v>
       </c>
@@ -7491,7 +7516,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>433</v>
       </c>
@@ -7534,13 +7559,13 @@
       <c r="N107" s="5">
         <v>513</v>
       </c>
-      <c r="O107" s="22"/>
+      <c r="O107" s="20"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>434</v>
       </c>
@@ -7586,21 +7611,21 @@
       <c r="O108" s="10">
         <v>8</v>
       </c>
-      <c r="P108" s="16" t="s">
+      <c r="P108" s="26" t="s">
         <v>204</v>
       </c>
       <c r="Q108" s="10">
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
+    <row r="109" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="19" t="s">
         <v>439</v>
       </c>
       <c r="D109" s="12">
@@ -7615,7 +7640,7 @@
       <c r="G109" s="12">
         <v>55</v>
       </c>
-      <c r="H109" s="26">
+      <c r="H109" s="22">
         <v>430197</v>
       </c>
       <c r="I109" s="12" t="s">
@@ -7636,20 +7661,20 @@
       <c r="N109" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="O109" s="22"/>
+      <c r="O109" s="20"/>
       <c r="P109" s="12"/>
       <c r="Q109" s="12">
         <v>196</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="21" t="s">
+    <row r="110" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="B110" s="21" t="s">
+      <c r="B110" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="19" t="s">
         <v>443</v>
       </c>
       <c r="D110" s="12">
@@ -7685,13 +7710,13 @@
       <c r="N110" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="O110" s="22"/>
+      <c r="O110" s="20"/>
       <c r="P110" s="12"/>
       <c r="Q110" s="12">
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>446</v>
       </c>
@@ -7742,7 +7767,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>450</v>
       </c>
@@ -7785,13 +7810,13 @@
       <c r="N112" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="O112" s="22"/>
+      <c r="O112" s="20"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>452</v>
       </c>
@@ -7834,13 +7859,13 @@
       <c r="N113" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="O113" s="22"/>
+      <c r="O113" s="20"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>453</v>
       </c>
@@ -7883,13 +7908,13 @@
       <c r="N114" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="O114" s="27"/>
+      <c r="O114" s="23"/>
       <c r="P114" s="8"/>
       <c r="Q114" s="8">
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
         <v>458</v>
       </c>
@@ -7940,883 +7965,883 @@
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:Q992" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
@@ -8858,1060 +8883,1060 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
